--- a/data/_Country codes_names.xlsx
+++ b/data/_Country codes_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\csis\csis_lab_meeting\Liu_Lab_mtgs_2019_Fall\Metacoupling_2_Papers\metacoupling_biodiversity\Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\csis\csis_lab_meeting\Liu_Lab_mtgs_2019_Fall\Metacoupling_2_Papers\metacoupling_biodiversity\Yingjie_ONLY\mcbd_github\MCBD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A3314F-37CE-47BE-8C11-2D7F26B2D7B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D0DBBA-0734-464D-93E2-FA34AF176C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="19420" windowHeight="15580" xr2:uid="{D32C143D-2C43-4F24-B2EB-E8F4887C0415}"/>
+    <workbookView xWindow="7725" yWindow="2535" windowWidth="22350" windowHeight="11550" xr2:uid="{D32C143D-2C43-4F24-B2EB-E8F4887C0415}"/>
   </bookViews>
   <sheets>
     <sheet name="FAO_match_Eora" sheetId="2" r:id="rId1"/>
@@ -3234,18 +3234,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60AB863-97C9-4768-AF29-1A9467667B45}">
   <dimension ref="A1:E283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A289" sqref="A289"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="4" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>763</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>768</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>770</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>771</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>773</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>777</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>775</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>778</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>779</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>783</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>780</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>784</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>106</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>790</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>788</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>791</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>793</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>140</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>797</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>798</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>799</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>800</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>144</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>156</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>180</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>164</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>168</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>172</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>176</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>804</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>184</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>188</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>192</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>196</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>200</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>204</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>807</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>808</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>809</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>208</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>212</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>216</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>220</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>224</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>228</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>232</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>236</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>814</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>816</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>817</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>818</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>240</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>243</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>247</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>820</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>802</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>255</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>259</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>263</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>266</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>270</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>823</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>274</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>805</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>278</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>829</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>831</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>281</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>285</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>289</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>293</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>297</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>833</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>301</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>305</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>308</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>312</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>316</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>320</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>324</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>328</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>834</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>331</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>335</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>339</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>342</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>345</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>349</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>353</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>357</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>361</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>365</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>842</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>369</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>373</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>843</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>377</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>381</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>385</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>389</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>825</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>393</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>845</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>397</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>401</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>405</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>409</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>412</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>416</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>420</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>424</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>848</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>428</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>432</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>850</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>852</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>436</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>853</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>440</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>855</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>444</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>448</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>451</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>858</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>454</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>458</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>462</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>466</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>470</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>474</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>862</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>478</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>864</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>838</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>482</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>485</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>489</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>493</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>497</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>867</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>868</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>500</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>872</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>874</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>875</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>876</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>504</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>878</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>880</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>508</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>881</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>512</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>516</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>884</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>520</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>PAN</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>524</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>PNG</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>528</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>PRY</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>532</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>PER</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>536</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>PHL</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>885</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>540</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>POL</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>887</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>544</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>PRT</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>888</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>548</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>QAT</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>552</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>556</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>891</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>560</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>ROU</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>563</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>567</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>RWA</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>892</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>571</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>574</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>894</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>577</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>580</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>WSM</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>584</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>SMR</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>588</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>STP</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>592</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>SAU</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>596</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>SEN</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>600</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>SRB</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>896</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>604</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>SYC</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>608</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>SLE</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>612</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>SGP</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>616</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>SVK</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>620</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>SVN</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>898</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>624</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>627</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>SOM</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>899</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>631</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>ZAF</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>900</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>635</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>SDS</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>901</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>902</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>903</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>639</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>ESP</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>643</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>LKA</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>647</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>SUD</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>904</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>651</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>SUR</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>905</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>655</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>SWE</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>659</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>CHE</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>663</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>667</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>TJK</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>671</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>THA</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>675</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>679</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>TGO</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>683</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>686</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>690</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>TTO</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>694</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>TUN</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>698</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>TUR</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>702</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>TKM</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>907</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>705</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>708</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>UGA</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>712</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>UKR</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>715</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>909</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>723</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>727</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>910</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>731</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>URY</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>912</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>735</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>UZB</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>739</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>VUT</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>743</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>747</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>VNM</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>914</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>916</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>917</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>918</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>919</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>921</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>751</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>YEM</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>922</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>755</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>ZMB</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>759</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>ZWE</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>812</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>795</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>844</v>
       </c>
@@ -7050,13 +7050,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="48.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>140</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>144</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>180</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>184</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>196</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>200</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>204</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>208</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>212</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>40765</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>216</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>220</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>224</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>228</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>232</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>236</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>240</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>243</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>247</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>251</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>255</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>263</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>266</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>270</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>274</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>278</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>281</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>285</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>289</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>293</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>297</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>301</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>305</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>308</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>312</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>316</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>320</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>324</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>328</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>331</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>335</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>339</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>342</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>345</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>349</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>353</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>357</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>361</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>365</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>369</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>373</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>377</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>381</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>385</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>389</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>393</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>397</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>401</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>405</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>409</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>412</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>416</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>420</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>424</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>428</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>432</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>436</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>440</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>444</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>448</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>451</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>454</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>458</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>462</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>466</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>470</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>474</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>478</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>482</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>485</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>489</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>493</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>497</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>500</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>504</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>508</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>512</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>516</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>520</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>524</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>528</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>532</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>536</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>540</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>544</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>548</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>552</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>556</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>560</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>563</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>567</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>571</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>574</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>577</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>580</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>584</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>588</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>592</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>596</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>600</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>604</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>608</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>612</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>616</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>620</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>624</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>627</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>631</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>635</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>639</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>643</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>647</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>40764</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>651</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>655</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>659</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>663</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>667</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>671</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>675</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>679</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>683</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>686</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>690</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>694</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>698</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>702</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>705</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>708</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>712</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>715</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>719</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>723</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>727</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>731</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>735</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>739</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>743</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>747</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>751</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>755</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>759</v>
       </c>
@@ -12191,12 +12191,12 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>925</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>926</v>
       </c>
@@ -12224,12 +12224,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12450,15 +12447,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC4A0B43-0E3A-435D-8504-32E07963A85E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E7E57E1-7D19-4D10-9F9E-48FA523592F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b248de5a-1419-4918-96b9-b3242b854abc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5662f12b-3453-4479-8b12-66d6bdcc6b72"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12483,18 +12492,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E7E57E1-7D19-4D10-9F9E-48FA523592F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC4A0B43-0E3A-435D-8504-32E07963A85E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b248de5a-1419-4918-96b9-b3242b854abc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5662f12b-3453-4479-8b12-66d6bdcc6b72"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>